--- a/Information/iqr_data.xlsx
+++ b/Information/iqr_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,86 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>battery_power</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>clock_speed</t>
+  </si>
+  <si>
+    <t>dual_sim</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>four_g</t>
+  </si>
+  <si>
+    <t>int_memory</t>
+  </si>
+  <si>
+    <t>m_dep</t>
+  </si>
+  <si>
+    <t>mobile_wt</t>
+  </si>
+  <si>
+    <t>n_cores</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>px_height</t>
+  </si>
+  <si>
+    <t>px_width</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>sc_h</t>
+  </si>
+  <si>
+    <t>sc_w</t>
+  </si>
+  <si>
+    <t>talk_time</t>
+  </si>
+  <si>
+    <t>three_g</t>
+  </si>
+  <si>
+    <t>touch_screen</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>price_range</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,18 +134,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -366,118 +446,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>battery_power</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>clock_speed</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>dual_sim</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>fc</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>four_g</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>int_memory</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>m_dep</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>mobile_wt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>n_cores</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>px_height</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>px_width</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>sc_h</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>sc_w</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>talk_time</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>three_g</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>touch_screen</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>wifi</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>price_range</t>
-        </is>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="n">
         <v>2000</v>
@@ -543,11 +579,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -613,11 +647,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -683,11 +715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B5" t="n">
         <v>2000</v>
@@ -754,6 +784,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>